--- a/tables/medians.xlsx
+++ b/tables/medians.xlsx
@@ -443,40 +443,40 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G2" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H2" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I2" t="n">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J2" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K2" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="L2" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M2" t="n">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="N2" t="n">
-        <v>69</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -489,30 +489,30 @@
       <c r="C3"/>
       <c r="D3"/>
       <c r="E3" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F3" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G3" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H3" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I3" t="n">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J3" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N3" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
@@ -523,32 +523,32 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H4" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L4" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="N4" t="n">
-        <v>26</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/tables/medians.xlsx
+++ b/tables/medians.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">all_info_expected</t>
   </si>
@@ -20,6 +20,12 @@
     <t xml:space="preserve">study_id</t>
   </si>
   <si>
+    <t xml:space="preserve">natural_es</t>
+  </si>
+  <si>
+    <t xml:space="preserve">converted_es</t>
+  </si>
+  <si>
     <t xml:space="preserve">min_exp</t>
   </si>
   <si>
@@ -57,6 +63,12 @@
   </si>
   <si>
     <t xml:space="preserve">med_min_max_quarts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D+G+MD+OR+R+Z</t>
   </si>
   <si>
     <t xml:space="preserve">med_min_max</t>
@@ -434,121 +446,145 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12</v>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
       </c>
       <c r="E2" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F2" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G2" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H2" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="I2" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J2" t="n">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K2" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L2" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M2" t="n">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="N2" t="n">
-        <v>24</v>
+        <v>98</v>
+      </c>
+      <c r="O2" t="n">
+        <v>95</v>
+      </c>
+      <c r="P2" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3" t="n">
-        <v>14</v>
-      </c>
-      <c r="F3" t="n">
-        <v>14</v>
-      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3"/>
       <c r="G3" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="H3" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I3" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="J3" t="n">
-        <v>42</v>
-      </c>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3" t="n">
-        <v>82</v>
-      </c>
-      <c r="N3" t="n">
-        <v>76</v>
+        <v>40</v>
+      </c>
+      <c r="K3" t="n">
+        <v>48</v>
+      </c>
+      <c r="L3" t="n">
+        <v>60</v>
+      </c>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3" t="n">
+        <v>85</v>
+      </c>
+      <c r="P3" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="n">
         <v>13</v>
       </c>
-      <c r="D4" t="n">
-        <v>16</v>
-      </c>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4" t="n">
+      <c r="F4" t="n">
+        <v>19</v>
+      </c>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4" t="n">
         <v>37</v>
       </c>
-      <c r="H4" t="n">
-        <v>42</v>
-      </c>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4" t="n">
+      <c r="J4" t="n">
+        <v>45</v>
+      </c>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4" t="n">
         <v>61</v>
       </c>
-      <c r="L4" t="n">
-        <v>68</v>
-      </c>
-      <c r="M4" t="n">
-        <v>68</v>
-      </c>
       <c r="N4" t="n">
-        <v>63</v>
+        <v>71</v>
+      </c>
+      <c r="O4" t="n">
+        <v>94</v>
+      </c>
+      <c r="P4" t="n">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/tables/medians.xlsx
+++ b/tables/medians.xlsx
@@ -467,40 +467,40 @@
         <v>18</v>
       </c>
       <c r="E2" t="n">
+        <v>13</v>
+      </c>
+      <c r="F2" t="n">
         <v>17</v>
       </c>
-      <c r="F2" t="n">
-        <v>18</v>
-      </c>
       <c r="G2" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I2" t="n">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="J2" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K2" t="n">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="L2" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M2" t="n">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="N2" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O2" t="n">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="P2" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3">
@@ -519,30 +519,30 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I3" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J3" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="K3" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L3" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="M3"/>
       <c r="N3"/>
       <c r="O3" t="n">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="P3" t="n">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4">
@@ -559,32 +559,32 @@
         <v>18</v>
       </c>
       <c r="E4" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F4" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J4" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K4"/>
       <c r="L4"/>
       <c r="M4" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="N4" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="O4" t="n">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="P4" t="n">
-        <v>88</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/tables/medians.xlsx
+++ b/tables/medians.xlsx
@@ -467,40 +467,40 @@
         <v>18</v>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F2" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G2" t="n">
+        <v>33</v>
+      </c>
+      <c r="H2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I2" t="n">
+        <v>50</v>
+      </c>
+      <c r="J2" t="n">
+        <v>50</v>
+      </c>
+      <c r="K2" t="n">
+        <v>67</v>
+      </c>
+      <c r="L2" t="n">
+        <v>70</v>
+      </c>
+      <c r="M2" t="n">
+        <v>84</v>
+      </c>
+      <c r="N2" t="n">
+        <v>90</v>
+      </c>
+      <c r="O2" t="n">
+        <v>19</v>
+      </c>
+      <c r="P2" t="n">
         <v>25</v>
-      </c>
-      <c r="H2" t="n">
-        <v>37</v>
-      </c>
-      <c r="I2" t="n">
-        <v>37</v>
-      </c>
-      <c r="J2" t="n">
-        <v>57</v>
-      </c>
-      <c r="K2" t="n">
-        <v>49</v>
-      </c>
-      <c r="L2" t="n">
-        <v>77</v>
-      </c>
-      <c r="M2" t="n">
-        <v>61</v>
-      </c>
-      <c r="N2" t="n">
-        <v>97</v>
-      </c>
-      <c r="O2" t="n">
-        <v>84</v>
-      </c>
-      <c r="P2" t="n">
-        <v>88</v>
       </c>
     </row>
     <row r="3">
@@ -519,30 +519,30 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I3" t="n">
+        <v>20</v>
+      </c>
+      <c r="J3" t="n">
+        <v>34</v>
+      </c>
+      <c r="K3" t="n">
         <v>30</v>
       </c>
-      <c r="J3" t="n">
-        <v>24</v>
-      </c>
-      <c r="K3" t="n">
-        <v>45</v>
-      </c>
       <c r="L3" t="n">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M3"/>
       <c r="N3"/>
       <c r="O3" t="n">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="P3" t="n">
-        <v>105</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4">
@@ -562,7 +562,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
@@ -570,7 +570,7 @@
         <v>41</v>
       </c>
       <c r="J4" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K4"/>
       <c r="L4"/>
@@ -578,13 +578,13 @@
         <v>65</v>
       </c>
       <c r="N4" t="n">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="O4" t="n">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="P4" t="n">
-        <v>20</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
